--- a/03_Water_Quality/0304_Water_Quality_Calculations.xlsx
+++ b/03_Water_Quality/0304_Water_Quality_Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niva365-my.sharepoint.com/personal/astha_bista_niva_no/Documents/Documents/GitHub/SWMM_MOO/03_Water_Quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{0871BDD4-4355-4BEB-93B3-F58C4760E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE73B4D-3BCC-4B85-8525-F8FA7E54F678}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{0871BDD4-4355-4BEB-93B3-F58C4760E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{743BE380-E999-4248-BD9D-FD00825D8C8A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6336" yWindow="1596" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{FF5962EC-10AC-4B51-908E-F89C9E1597F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{FF5962EC-10AC-4B51-908E-F89C9E1597F0}"/>
   </bookViews>
   <sheets>
     <sheet name="GR" sheetId="1" r:id="rId1"/>
@@ -2872,7 +2872,7 @@
       <sheetName val="0303_swmm_inflow_outflow_summar"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
             <v>GR_DRAIN</v>
@@ -5552,8 +5552,10 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="3">
-          <cell r="F3"/>
+        <row r="4">
+          <cell r="G4">
+            <v>6.3E-2</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
@@ -16028,8 +16030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5560718-B4E3-4D74-9866-0DA434791C4D}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
